--- a/USPSCleanUp/UploadedExcel/Opportunity List.xlsx
+++ b/USPSCleanUp/UploadedExcel/Opportunity List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,18 +646,39 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="2">
+        <v>20770</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
